--- a/data/2023-12.xlsx
+++ b/data/2023-12.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TAN\Desktop\KPIWebApp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FAC55D-7FEF-49AD-A16B-DA65C615EFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A97C63E-A939-4E94-953A-8F36E9353E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C5E7FFAA-552F-4261-8994-E2DFFF5B4D17}"/>
   </bookViews>
@@ -744,7 +744,7 @@
     <t>Year</t>
   </si>
   <si>
-    <t>KPI DATA 2023</t>
+    <t>KPI DATA 12/2023</t>
   </si>
 </sst>
 </file>
@@ -755,14 +755,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -770,7 +770,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -779,7 +779,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -787,7 +787,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -796,14 +796,14 @@
       <b/>
       <sz val="16"/>
       <color indexed="9"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1212,25 +1212,25 @@
   <dimension ref="B1:Q251"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M146" sqref="M146"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="1" customWidth="1"/>
-    <col min="5" max="6" width="7.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="16" width="13.125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="48.125" style="1" customWidth="1"/>
+    <col min="9" max="16" width="13.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="48.140625" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>238</v>
       </c>
@@ -1250,8 +1250,8 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="2:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>65</v>
       </c>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>66</v>
       </c>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>67</v>
       </c>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>68</v>
       </c>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>69</v>
       </c>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>70</v>
       </c>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>71</v>
       </c>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>72</v>
       </c>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>73</v>
       </c>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>15</v>
       </c>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>10</v>
       </c>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>11</v>
       </c>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>12</v>
       </c>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>42</v>
       </c>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>43</v>
       </c>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>44</v>
       </c>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="Q31" s="3"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>45</v>
       </c>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>46</v>
       </c>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>47</v>
       </c>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>48</v>
       </c>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>49</v>
       </c>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>50</v>
       </c>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>51</v>
       </c>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>18</v>
       </c>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>19</v>
       </c>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>20</v>
       </c>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>21</v>
       </c>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>22</v>
       </c>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>23</v>
       </c>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>24</v>
       </c>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>25</v>
       </c>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="Q46" s="3"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>26</v>
       </c>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="Q47" s="3"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>78</v>
       </c>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="Q48" s="3"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>79</v>
       </c>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="Q49" s="3"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>80</v>
       </c>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="Q50" s="3"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>81</v>
       </c>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="Q51" s="3"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>82</v>
       </c>
@@ -3605,7 +3605,7 @@
       </c>
       <c r="Q52" s="3"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>83</v>
       </c>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="Q53" s="3"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>84</v>
       </c>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="Q54" s="3"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>85</v>
       </c>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="Q55" s="3"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>86</v>
       </c>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="Q56" s="3"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>87</v>
       </c>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="Q57" s="3"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>88</v>
       </c>
@@ -3893,7 +3893,7 @@
       </c>
       <c r="Q58" s="3"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>89</v>
       </c>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="Q59" s="3"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>37</v>
       </c>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="Q60" s="3"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>38</v>
       </c>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="Q61" s="3"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>234</v>
       </c>
@@ -4085,7 +4085,7 @@
       </c>
       <c r="Q62" s="3"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>40</v>
       </c>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="Q63" s="3"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>39</v>
       </c>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="Q64" s="3"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>41</v>
       </c>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="Q65" s="3"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>74</v>
       </c>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="Q66" s="3"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
         <v>75</v>
       </c>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="Q67" s="3"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
         <v>76</v>
       </c>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="Q68" s="3"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
         <v>77</v>
       </c>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="Q69" s="3"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>90</v>
       </c>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="Q70" s="3"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
         <v>91</v>
       </c>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="Q71" s="3"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
         <v>92</v>
       </c>
@@ -4565,7 +4565,7 @@
       </c>
       <c r="Q72" s="3"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
         <v>93</v>
       </c>
@@ -4613,7 +4613,7 @@
       </c>
       <c r="Q73" s="3"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
         <v>94</v>
       </c>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="Q74" s="3"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
         <v>95</v>
       </c>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="Q75" s="3"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
         <v>96</v>
       </c>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="Q76" s="3"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
         <v>97</v>
       </c>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="Q77" s="3"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
         <v>98</v>
       </c>
@@ -4853,7 +4853,7 @@
       </c>
       <c r="Q78" s="3"/>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
         <v>99</v>
       </c>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="Q79" s="3"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
         <v>100</v>
       </c>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="Q80" s="3"/>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
         <v>101</v>
       </c>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="Q81" s="3"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
         <v>102</v>
       </c>
@@ -5045,7 +5045,7 @@
       </c>
       <c r="Q82" s="3"/>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
         <v>103</v>
       </c>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="Q83" s="3"/>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
         <v>104</v>
       </c>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="Q84" s="3"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
         <v>105</v>
       </c>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="Q85" s="3"/>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
         <v>106</v>
       </c>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="Q86" s="3"/>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
         <v>27</v>
       </c>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="Q87" s="3"/>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
         <v>28</v>
       </c>
@@ -5333,7 +5333,7 @@
       </c>
       <c r="Q88" s="3"/>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
         <v>29</v>
       </c>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="Q89" s="3"/>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
         <v>30</v>
       </c>
@@ -5429,7 +5429,7 @@
       </c>
       <c r="Q90" s="3"/>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
         <v>31</v>
       </c>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="Q91" s="3"/>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
         <v>32</v>
       </c>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="Q92" s="3"/>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
         <v>33</v>
       </c>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="Q93" s="3"/>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
         <v>34</v>
       </c>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="Q94" s="3"/>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
         <v>35</v>
       </c>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="Q95" s="3"/>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
         <v>36</v>
       </c>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="Q96" s="3"/>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
         <v>52</v>
       </c>
@@ -5765,7 +5765,7 @@
       </c>
       <c r="Q97" s="3"/>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
         <v>53</v>
       </c>
@@ -5813,7 +5813,7 @@
       </c>
       <c r="Q98" s="3"/>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
         <v>54</v>
       </c>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="Q99" s="3"/>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
         <v>55</v>
       </c>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="Q100" s="3"/>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
         <v>56</v>
       </c>
@@ -5957,7 +5957,7 @@
       </c>
       <c r="Q101" s="3"/>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
         <v>57</v>
       </c>
@@ -6005,7 +6005,7 @@
       </c>
       <c r="Q102" s="3"/>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
         <v>58</v>
       </c>
@@ -6053,7 +6053,7 @@
       </c>
       <c r="Q103" s="3"/>
     </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B104" s="3" t="s">
         <v>59</v>
       </c>
@@ -6101,7 +6101,7 @@
       </c>
       <c r="Q104" s="3"/>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
         <v>60</v>
       </c>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="Q105" s="3"/>
     </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
         <v>61</v>
       </c>
@@ -6197,7 +6197,7 @@
       </c>
       <c r="Q106" s="3"/>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B107" s="3" t="s">
         <v>62</v>
       </c>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="Q107" s="3"/>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B108" s="3" t="s">
         <v>63</v>
       </c>
@@ -6293,7 +6293,7 @@
       </c>
       <c r="Q108" s="3"/>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B109" s="3" t="s">
         <v>64</v>
       </c>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="Q109" s="3"/>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="2"/>
@@ -6359,7 +6359,7 @@
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="2"/>
@@ -6377,7 +6377,7 @@
       <c r="P111" s="3"/>
       <c r="Q111" s="3"/>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="2"/>
@@ -6395,7 +6395,7 @@
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
     </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="2"/>
@@ -6413,7 +6413,7 @@
       <c r="P113" s="3"/>
       <c r="Q113" s="3"/>
     </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="2"/>
@@ -6431,7 +6431,7 @@
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
     </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="2"/>
@@ -6449,7 +6449,7 @@
       <c r="P115" s="3"/>
       <c r="Q115" s="3"/>
     </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="2"/>
@@ -6467,7 +6467,7 @@
       <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
     </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="2"/>
@@ -6485,7 +6485,7 @@
       <c r="P117" s="3"/>
       <c r="Q117" s="3"/>
     </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="2"/>
@@ -6503,7 +6503,7 @@
       <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
     </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="2"/>
@@ -6521,7 +6521,7 @@
       <c r="P119" s="3"/>
       <c r="Q119" s="3"/>
     </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="2"/>
@@ -6539,7 +6539,7 @@
       <c r="P120" s="3"/>
       <c r="Q120" s="3"/>
     </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="2"/>
@@ -6557,7 +6557,7 @@
       <c r="P121" s="3"/>
       <c r="Q121" s="3"/>
     </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="2"/>
@@ -6575,7 +6575,7 @@
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
     </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="2"/>
@@ -6593,7 +6593,7 @@
       <c r="P123" s="3"/>
       <c r="Q123" s="3"/>
     </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="2"/>
@@ -6611,7 +6611,7 @@
       <c r="P124" s="3"/>
       <c r="Q124" s="3"/>
     </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="2"/>
@@ -6629,7 +6629,7 @@
       <c r="P125" s="3"/>
       <c r="Q125" s="3"/>
     </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="2"/>
@@ -6647,7 +6647,7 @@
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
     </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="2"/>
@@ -6665,7 +6665,7 @@
       <c r="P127" s="3"/>
       <c r="Q127" s="3"/>
     </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="2"/>
@@ -6683,7 +6683,7 @@
       <c r="P128" s="3"/>
       <c r="Q128" s="3"/>
     </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="2"/>
@@ -6701,7 +6701,7 @@
       <c r="P129" s="3"/>
       <c r="Q129" s="3"/>
     </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="2"/>
@@ -6719,7 +6719,7 @@
       <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
     </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="2"/>
@@ -6737,7 +6737,7 @@
       <c r="P131" s="3"/>
       <c r="Q131" s="3"/>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="2"/>
@@ -6755,7 +6755,7 @@
       <c r="P132" s="3"/>
       <c r="Q132" s="3"/>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="2"/>
@@ -6773,7 +6773,7 @@
       <c r="P133" s="3"/>
       <c r="Q133" s="3"/>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="2"/>
@@ -6791,7 +6791,7 @@
       <c r="P134" s="3"/>
       <c r="Q134" s="3"/>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="2"/>
@@ -6809,7 +6809,7 @@
       <c r="P135" s="3"/>
       <c r="Q135" s="3"/>
     </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="2"/>
@@ -6827,7 +6827,7 @@
       <c r="P136" s="3"/>
       <c r="Q136" s="3"/>
     </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="2"/>
@@ -6845,7 +6845,7 @@
       <c r="P137" s="3"/>
       <c r="Q137" s="3"/>
     </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="2"/>
@@ -6863,7 +6863,7 @@
       <c r="P138" s="3"/>
       <c r="Q138" s="3"/>
     </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="2"/>
@@ -6881,7 +6881,7 @@
       <c r="P139" s="3"/>
       <c r="Q139" s="3"/>
     </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="2"/>
@@ -6899,7 +6899,7 @@
       <c r="P140" s="3"/>
       <c r="Q140" s="3"/>
     </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="2"/>
@@ -6917,7 +6917,7 @@
       <c r="P141" s="3"/>
       <c r="Q141" s="3"/>
     </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="2"/>
@@ -6935,7 +6935,7 @@
       <c r="P142" s="3"/>
       <c r="Q142" s="3"/>
     </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -6953,536 +6953,536 @@
       <c r="P143" s="3"/>
       <c r="Q143" s="3"/>
     </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B144" s="9"/>
     </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="Q146" s="9"/>
     </row>
-    <row r="147" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
     </row>
-    <row r="148" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
     </row>
-    <row r="149" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
     </row>
-    <row r="150" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
     </row>
-    <row r="151" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
     </row>
-    <row r="152" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
     </row>
-    <row r="153" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
     </row>
-    <row r="154" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
     </row>
-    <row r="155" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
     </row>
-    <row r="156" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
     </row>
-    <row r="157" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
     </row>
-    <row r="158" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
     </row>
-    <row r="159" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
     </row>
-    <row r="160" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
       <c r="D200" s="9"/>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
       <c r="D201" s="9"/>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
       <c r="D202" s="9"/>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
       <c r="D205" s="9"/>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
       <c r="D206" s="9"/>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
       <c r="D207" s="9"/>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
       <c r="D208" s="9"/>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
       <c r="D209" s="9"/>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
       <c r="D210" s="9"/>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
       <c r="D211" s="9"/>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
       <c r="D212" s="9"/>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
       <c r="D213" s="9"/>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
       <c r="D214" s="9"/>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
       <c r="D215" s="9"/>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
       <c r="D216" s="9"/>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
       <c r="D218" s="9"/>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
       <c r="D219" s="9"/>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
       <c r="D220" s="9"/>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
       <c r="D221" s="9"/>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
       <c r="D222" s="9"/>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
       <c r="D223" s="9"/>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
       <c r="D224" s="9"/>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
       <c r="D225" s="9"/>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
       <c r="D226" s="9"/>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
       <c r="D227" s="9"/>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
       <c r="D228" s="9"/>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
       <c r="D229" s="9"/>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
       <c r="D230" s="9"/>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
       <c r="D231" s="9"/>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
       <c r="D232" s="9"/>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
       <c r="D233" s="9"/>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
       <c r="D234" s="9"/>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
       <c r="D235" s="9"/>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
       <c r="D236" s="9"/>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B237" s="9"/>
       <c r="C237" s="9"/>
       <c r="D237" s="9"/>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B238" s="9"/>
       <c r="C238" s="9"/>
       <c r="D238" s="9"/>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
       <c r="D239" s="9"/>
     </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
       <c r="D240" s="9"/>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
       <c r="D241" s="9"/>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
       <c r="D242" s="9"/>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
       <c r="D243" s="9"/>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B246" s="9"/>
       <c r="C246" s="9"/>
       <c r="D246" s="9"/>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B248" s="9"/>
       <c r="C248" s="9"/>
       <c r="D248" s="9"/>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B249" s="9"/>
       <c r="C249" s="9"/>
       <c r="D249" s="9"/>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
       <c r="D250" s="9"/>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
       <c r="D251" s="9"/>
